--- a/data/example_scripts.xlsx
+++ b/data/example_scripts.xlsx
@@ -361,7 +361,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>delete</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -467,11 +467,7 @@
           <t>include</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>include</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>include</t>
@@ -533,7 +529,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SELECT (Id, IOServersId, Name, HealthStatusAddressId, IsHealthStatusAddress, SimulateIO, IsConnected) FROM IOChannels WHERE Name = 'Charger 7-1 IO'  AND  IsConnected = '0';</t>
+          <t>DELETE FROM IOChannels WHERE Name = 'Charger 7-1 IO'  AND  IsConnected = '0';</t>
         </is>
       </c>
     </row>
@@ -563,7 +559,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SELECT (Id, IOServersId, Name, HealthStatusAddressId, IsHealthStatusAddress, SimulateIO, IsConnected) FROM IOChannels WHERE Name = 'Charger 7-2 IO'  AND  IsConnected = '0';</t>
+          <t>DELETE FROM IOChannels WHERE Name = 'Charger 7-2 IO'  AND  IsConnected = '0';</t>
         </is>
       </c>
     </row>
@@ -593,7 +589,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SELECT (Id, IOServersId, Name, HealthStatusAddressId, IsHealthStatusAddress, SimulateIO, IsConnected) FROM IOChannels WHERE Name = 'Charger 7-3 IO'  AND  IsConnected = '0';</t>
+          <t>DELETE FROM IOChannels WHERE Name = 'Charger 7-3 IO'  AND  IsConnected = '0';</t>
         </is>
       </c>
     </row>
@@ -623,7 +619,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SELECT (Id, IOServersId, Name, HealthStatusAddressId, IsHealthStatusAddress, SimulateIO, IsConnected) FROM IOChannels WHERE Name = 'Charger 7-4 IO'  AND  IsConnected = '0';</t>
+          <t>DELETE FROM IOChannels WHERE Name = 'Charger 7-4 IO'  AND  IsConnected = '0';</t>
         </is>
       </c>
     </row>
@@ -653,7 +649,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SELECT (Id, IOServersId, Name, HealthStatusAddressId, IsHealthStatusAddress, SimulateIO, IsConnected) FROM IOChannels WHERE Name = 'Charger 7-5 IO'  AND  IsConnected = '0';</t>
+          <t>DELETE FROM IOChannels WHERE Name = 'Charger 7-5 IO'  AND  IsConnected = '0';</t>
         </is>
       </c>
     </row>
@@ -683,7 +679,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SELECT (Id, IOServersId, Name, HealthStatusAddressId, IsHealthStatusAddress, SimulateIO, IsConnected) FROM IOChannels WHERE Name = 'Charger 7-6 IO'  AND  IsConnected = '0';</t>
+          <t>DELETE FROM IOChannels WHERE Name = 'Charger 7-6 IO'  AND  IsConnected = '0';</t>
         </is>
       </c>
     </row>
@@ -713,7 +709,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SELECT (Id, IOServersId, Name, HealthStatusAddressId, IsHealthStatusAddress, SimulateIO, IsConnected) FROM IOChannels WHERE Name = 'Charger 7-7 IO'  AND  IsConnected = '0';</t>
+          <t>DELETE FROM IOChannels WHERE Name = 'Charger 7-7 IO'  AND  IsConnected = '0';</t>
         </is>
       </c>
     </row>
@@ -743,7 +739,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SELECT (Id, IOServersId, Name, HealthStatusAddressId, IsHealthStatusAddress, SimulateIO, IsConnected) FROM IOChannels WHERE Name = 'Charger 7-8 IO'  AND  IsConnected = '0';</t>
+          <t>DELETE FROM IOChannels WHERE Name = 'Charger 7-8 IO'  AND  IsConnected = '0';</t>
         </is>
       </c>
     </row>
@@ -773,7 +769,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SELECT (Id, IOServersId, Name, HealthStatusAddressId, IsHealthStatusAddress, SimulateIO, IsConnected) FROM IOChannels WHERE Name = 'Plant 7 IO'  AND  IsConnected = '0';</t>
+          <t>DELETE FROM IOChannels WHERE Name = 'Plant 7 IO'  AND  IsConnected = '0';</t>
         </is>
       </c>
     </row>
@@ -803,7 +799,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SELECT (Id, IOServersId, Name, HealthStatusAddressId, IsHealthStatusAddress, SimulateIO, IsConnected) FROM IOChannels WHERE Name = 'Charget 7-9 IO'  AND  IsConnected = '0';</t>
+          <t>DELETE FROM IOChannels WHERE Name = 'Charget 7-9 IO'  AND  IsConnected = '0';</t>
         </is>
       </c>
     </row>
